--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J2">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N2">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q2">
-        <v>2673.709692547797</v>
+        <v>0.009436203441777778</v>
       </c>
       <c r="R2">
-        <v>2673.709692547797</v>
+        <v>0.084925830976</v>
       </c>
       <c r="S2">
-        <v>0.02051350603876156</v>
+        <v>6.269583711692886E-08</v>
       </c>
       <c r="T2">
-        <v>0.02051350603876156</v>
+        <v>6.269583711692885E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J3">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N3">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q3">
-        <v>3373.940073555636</v>
+        <v>14.61577206877511</v>
       </c>
       <c r="R3">
-        <v>3373.940073555636</v>
+        <v>131.541948618976</v>
       </c>
       <c r="S3">
-        <v>0.02588588441976705</v>
+        <v>9.71098250070627E-05</v>
       </c>
       <c r="T3">
-        <v>0.02588588441976705</v>
+        <v>9.710982500706269E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>55.1763409156363</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H4">
-        <v>55.1763409156363</v>
+        <v>0.720272</v>
       </c>
       <c r="I4">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J4">
-        <v>0.05068158136763837</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N4">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q4">
-        <v>558.1364451982312</v>
+        <v>15.29686399300267</v>
       </c>
       <c r="R4">
-        <v>558.1364451982312</v>
+        <v>137.671775937024</v>
       </c>
       <c r="S4">
-        <v>0.004282190909109759</v>
+        <v>0.0001016351225598867</v>
       </c>
       <c r="T4">
-        <v>0.004282190909109759</v>
+        <v>0.0001016351225598867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>110.013095581499</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H5">
-        <v>110.013095581499</v>
+        <v>0.720272</v>
       </c>
       <c r="I5">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="J5">
-        <v>0.1010512397649669</v>
+        <v>0.0002162447659744527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N5">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q5">
-        <v>5330.963871148703</v>
+        <v>2.624420433313778</v>
       </c>
       <c r="R5">
-        <v>5330.963871148703</v>
+        <v>23.619783899824</v>
       </c>
       <c r="S5">
-        <v>0.04090076041839149</v>
+        <v>1.743712257038633E-05</v>
       </c>
       <c r="T5">
-        <v>0.04090076041839149</v>
+        <v>1.743712257038633E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>110.013095581499</v>
+        <v>0.084971</v>
       </c>
       <c r="H6">
-        <v>110.013095581499</v>
+        <v>0.254913</v>
       </c>
       <c r="I6">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J6">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N6">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q6">
-        <v>6727.115021379368</v>
+        <v>0.003339586889333333</v>
       </c>
       <c r="R6">
-        <v>6727.115021379368</v>
+        <v>0.030056282004</v>
       </c>
       <c r="S6">
-        <v>0.05161245254080342</v>
+        <v>2.21888174564438E-08</v>
       </c>
       <c r="T6">
-        <v>0.05161245254080342</v>
+        <v>2.218881745644379E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -841,173 +847,173 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>110.013095581499</v>
+        <v>0.084971</v>
       </c>
       <c r="H7">
-        <v>110.013095581499</v>
+        <v>0.254913</v>
       </c>
       <c r="I7">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J7">
-        <v>0.1010512397649669</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1155030568557</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N7">
-        <v>10.1155030568557</v>
+        <v>182.628158</v>
       </c>
       <c r="O7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q7">
-        <v>1112.837804648811</v>
+        <v>5.172699071139334</v>
       </c>
       <c r="R7">
-        <v>1112.837804648811</v>
+        <v>46.554291640254</v>
       </c>
       <c r="S7">
-        <v>0.008538026805772016</v>
+        <v>3.436834532235791E-05</v>
       </c>
       <c r="T7">
-        <v>0.008538026805772016</v>
+        <v>3.43683453223579E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>923.49681651051</v>
+        <v>0.084971</v>
       </c>
       <c r="H8">
-        <v>923.49681651051</v>
+        <v>0.254913</v>
       </c>
       <c r="I8">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J8">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4575390136119</v>
+        <v>63.712864</v>
       </c>
       <c r="N8">
-        <v>48.4575390136119</v>
+        <v>191.138592</v>
       </c>
       <c r="O8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q8">
-        <v>44750.38301500443</v>
+        <v>5.413745766944</v>
       </c>
       <c r="R8">
-        <v>44750.38301500443</v>
+        <v>48.72371190249601</v>
       </c>
       <c r="S8">
-        <v>0.3433384165729786</v>
+        <v>3.596990303261601E-05</v>
       </c>
       <c r="T8">
-        <v>0.3433384165729786</v>
+        <v>3.5969903032616E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>923.49681651051</v>
+        <v>0.084971</v>
       </c>
       <c r="H9">
-        <v>923.49681651051</v>
+        <v>0.254913</v>
       </c>
       <c r="I9">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808325E-05</v>
       </c>
       <c r="J9">
-        <v>0.8482671788673948</v>
+        <v>7.653164641808324E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.1483113516776</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N9">
-        <v>61.1483113516776</v>
+        <v>32.792867</v>
       </c>
       <c r="O9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q9">
-        <v>56470.27086826775</v>
+        <v>0.9288142339523334</v>
       </c>
       <c r="R9">
-        <v>56470.27086826775</v>
+        <v>8.359328105571</v>
       </c>
       <c r="S9">
-        <v>0.4332569260213365</v>
+        <v>6.171209245652881E-06</v>
       </c>
       <c r="T9">
-        <v>0.4332569260213365</v>
+        <v>6.171209245652878E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>62.546238</v>
+      </c>
+      <c r="H10">
+        <v>187.638714</v>
+      </c>
+      <c r="I10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J10">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.117908</v>
+      </c>
+      <c r="O10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q10">
+        <v>2.458233943368</v>
+      </c>
+      <c r="R10">
+        <v>22.124105490312</v>
+      </c>
+      <c r="S10">
+        <v>1.633294956596119E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.633294956596119E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>62.546238</v>
+      </c>
+      <c r="H11">
+        <v>187.638714</v>
+      </c>
+      <c r="I11">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J11">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N11">
+        <v>182.628158</v>
+      </c>
+      <c r="O11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q11">
+        <v>3807.568078589868</v>
+      </c>
+      <c r="R11">
+        <v>34268.11270730881</v>
+      </c>
+      <c r="S11">
+        <v>0.02529816885994497</v>
+      </c>
+      <c r="T11">
+        <v>0.02529816885994497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>62.546238</v>
+      </c>
+      <c r="H12">
+        <v>187.638714</v>
+      </c>
+      <c r="I12">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J12">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.712864</v>
+      </c>
+      <c r="N12">
+        <v>191.138592</v>
+      </c>
+      <c r="O12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q12">
+        <v>3984.999955405632</v>
+      </c>
+      <c r="R12">
+        <v>35864.99959865069</v>
+      </c>
+      <c r="S12">
+        <v>0.02647705824239944</v>
+      </c>
+      <c r="T12">
+        <v>0.02647705824239944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>62.546238</v>
+      </c>
+      <c r="H13">
+        <v>187.638714</v>
+      </c>
+      <c r="I13">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="J13">
+        <v>0.05633412071644775</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N13">
+        <v>32.792867</v>
+      </c>
+      <c r="O13">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P13">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q13">
+        <v>683.690154694782</v>
+      </c>
+      <c r="R13">
+        <v>6153.211392253038</v>
+      </c>
+      <c r="S13">
+        <v>0.004542560664537378</v>
+      </c>
+      <c r="T13">
+        <v>0.004542560664537377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H14">
+        <v>330.729865</v>
+      </c>
+      <c r="I14">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J14">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.117908</v>
+      </c>
+      <c r="O14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q14">
+        <v>4.332855213602222</v>
+      </c>
+      <c r="R14">
+        <v>38.99569692242</v>
+      </c>
+      <c r="S14">
+        <v>2.878827129993096E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.878827129993096E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>923.49681651051</v>
-      </c>
-      <c r="H10">
-        <v>923.49681651051</v>
-      </c>
-      <c r="I10">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="J10">
-        <v>0.8482671788673948</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="N10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="O10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="P10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="Q10">
-        <v>9341.63487040857</v>
-      </c>
-      <c r="R10">
-        <v>9341.63487040857</v>
-      </c>
-      <c r="S10">
-        <v>0.07167183627307962</v>
-      </c>
-      <c r="T10">
-        <v>0.07167183627307962</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H15">
+        <v>330.729865</v>
+      </c>
+      <c r="I15">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J15">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N15">
+        <v>182.628158</v>
+      </c>
+      <c r="O15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q15">
+        <v>6711.17622672652</v>
+      </c>
+      <c r="R15">
+        <v>60400.58604053868</v>
+      </c>
+      <c r="S15">
+        <v>0.04459026494818551</v>
+      </c>
+      <c r="T15">
+        <v>0.0445902649481855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H16">
+        <v>330.729865</v>
+      </c>
+      <c r="I16">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J16">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.712864</v>
+      </c>
+      <c r="N16">
+        <v>191.138592</v>
+      </c>
+      <c r="O16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q16">
+        <v>7023.915636494454</v>
+      </c>
+      <c r="R16">
+        <v>63215.24072845009</v>
+      </c>
+      <c r="S16">
+        <v>0.04666816197698895</v>
+      </c>
+      <c r="T16">
+        <v>0.04666816197698895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>110.2432883333333</v>
+      </c>
+      <c r="H17">
+        <v>330.729865</v>
+      </c>
+      <c r="I17">
+        <v>0.09929388100285355</v>
+      </c>
+      <c r="J17">
+        <v>0.09929388100285354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.792867</v>
+      </c>
+      <c r="O17">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P17">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q17">
+        <v>1205.064497319217</v>
+      </c>
+      <c r="R17">
+        <v>10845.58047587296</v>
+      </c>
+      <c r="S17">
+        <v>0.008006665806379154</v>
+      </c>
+      <c r="T17">
+        <v>0.008006665806379151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H18">
+        <v>2811.474426</v>
+      </c>
+      <c r="I18">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J18">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.117908</v>
+      </c>
+      <c r="O18">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P18">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q18">
+        <v>36.83281406897866</v>
+      </c>
+      <c r="R18">
+        <v>331.495326620808</v>
+      </c>
+      <c r="S18">
+        <v>0.0002447238580298929</v>
+      </c>
+      <c r="T18">
+        <v>0.0002447238580298929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H19">
+        <v>2811.474426</v>
+      </c>
+      <c r="I19">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J19">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N19">
+        <v>182.628158</v>
+      </c>
+      <c r="O19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P19">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q19">
+        <v>57050.48840938748</v>
+      </c>
+      <c r="R19">
+        <v>513454.3956844873</v>
+      </c>
+      <c r="S19">
+        <v>0.3790537318133872</v>
+      </c>
+      <c r="T19">
+        <v>0.3790537318133871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H20">
+        <v>2811.474426</v>
+      </c>
+      <c r="I20">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J20">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>63.712864</v>
+      </c>
+      <c r="N20">
+        <v>191.138592</v>
+      </c>
+      <c r="O20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P20">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q20">
+        <v>59709.02924773868</v>
+      </c>
+      <c r="R20">
+        <v>537381.2632296482</v>
+      </c>
+      <c r="S20">
+        <v>0.3967175565071211</v>
+      </c>
+      <c r="T20">
+        <v>0.396717556507121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>937.1581419999999</v>
+      </c>
+      <c r="H21">
+        <v>2811.474426</v>
+      </c>
+      <c r="I21">
+        <v>0.8440792218683062</v>
+      </c>
+      <c r="J21">
+        <v>0.8440792218683061</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N21">
+        <v>32.792867</v>
+      </c>
+      <c r="O21">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P21">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q21">
+        <v>10244.0341028577</v>
+      </c>
+      <c r="R21">
+        <v>92196.30692571934</v>
+      </c>
+      <c r="S21">
+        <v>0.06806320968976798</v>
+      </c>
+      <c r="T21">
+        <v>0.06806320968976795</v>
       </c>
     </row>
   </sheetData>
